--- a/data/trans_bre/P31_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,12 +525,16 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>17,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,28</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,03%</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>111,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>59,13%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>52,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 12,6</t>
+          <t>7,0; 29,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 21,91</t>
+          <t>4,25; 20,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 16,65</t>
+          <t>-0,67; 18,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 14,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 52,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,82; 99,95</t>
+          <t>-0,9; 23,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 77,21</t>
+          <t>27,67; 264,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 60,22</t>
+          <t>16,84; 125,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 83,68</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 179,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,53</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
+          <t>57,71%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>55,79%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>64,52%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 10,83</t>
+          <t>-3,91; 11,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 17,79</t>
+          <t>6,04; 17,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 14,15</t>
+          <t>4,74; 14,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 17,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 73,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,38; 94,17</t>
+          <t>3,05; 16,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 95,77</t>
+          <t>-16,85; 76,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,07; 136,67</t>
+          <t>23,21; 96,31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22,62; 102,19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 135,1</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,71%</t>
+          <t>53,51%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>58,33%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 10,24</t>
+          <t>-1,25; 13,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 14,7</t>
+          <t>3,81; 15,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 10,3</t>
+          <t>-0,47; 10,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 18,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 80,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 92,04</t>
+          <t>1,82; 13,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 71,33</t>
+          <t>-7,05; 111,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,85; 195,01</t>
+          <t>17,77; 98,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 77,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 142,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>14,64</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,61%</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>63,29%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>65,77%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,45</t>
+          <t>-1,89; 10,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 15,43</t>
+          <t>6,92; 22,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 14,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 57,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,79; 79,6</t>
+          <t>3,31; 15,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,41; 66,71</t>
+          <t>-9,43; 61,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,04; 84,83</t>
+          <t>22,43; 110,9</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 135,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,15</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,76</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57,61%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45,26%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 9,87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 15,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 12,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 12,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 58,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36,6; 78,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22,34; 71,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33,8; 95,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,74</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,83</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>111,71%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>59,13%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>35,47%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>52,2%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>16.59982326870878</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.2271470348254</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.00276015934939</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>10.37078872758154</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9438000947512226</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5730822878626595</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3650579109035921</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>0.5379808545448199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 29,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 20,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 18,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 23,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>27,67; 264,72</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>16,84; 125,04</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 83,68</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-5,95; 179,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.291295387305452</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.794540228976351</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2613737083706966</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>0.3953129469548111</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1660165613826166</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1422425189126815</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.02663966916170453</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>-0.001149039930409636</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>27.66867281810458</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.05478745195033</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.93544655527502</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>23.33988184109479</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.431294642957495</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.167727286485574</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7965107668016335</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>1.967795352836777</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,77</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,3</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>25,49%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>57,71%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>55,79%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>64,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 11,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 17,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 14,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 16,44</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-16,85; 76,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>23,21; 96,31</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>22,62; 102,19</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>14,64; 135,1</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.596387282718731</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.59496823912154</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.394827161767537</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>10.83302631460093</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2372822148874299</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6055712458733783</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5279849209152048</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.673465659292103</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>39,11%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>53,51%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>32,89%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>58,33%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.126473136465654</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>6.192291929586664</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.147587609560551</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>3.99489094137922</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1392123722369066</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.246142226793927</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1941125223806461</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>0.1603592566904712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 13,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 15,75</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 10,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 13,5</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 111,94</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>17,77; 98,97</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 77,92</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>10,94; 142,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.41338701688037</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.41594966653395</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.36805702157548</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>17.94274084918906</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7824762846463836</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.046400596453335</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9648133221329861</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>1.359572268107651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>14,64</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,27</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>24,09%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>63,29%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>65,77%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.918585699254153</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.17009369061794</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.34281335132476</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>8.022317900978159</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4812986768072793</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.5468231353377924</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3195900643403349</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.6065701572373823</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 10,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 22,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 15,28</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-9,43; 61,53</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>22,43; 110,9</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>18,79; 135,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.2308336310133439</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.779697871674512</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.438267541595594</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>2.219178025850648</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.003058054281517935</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.1692780890610754</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.02275140280495296</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>0.1196003063529394</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.4994555406868</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.6659968824109</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.41076297457619</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>14.48516673304999</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.294318875118377</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.9798507902688071</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.7646740374639122</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>1.45629069830906</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,15</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,5</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>35,06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>57,61%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>45,26%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>62,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 9,87</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,5; 15,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 12,17</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,91; 12,79</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8,58; 58,17</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>36,6; 78,99</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>22,34; 71,63</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>33,8; 95,36</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.719165296946596</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.96352279840999</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.638303943362457</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>9.973049585578142</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4474063333870272</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5825992668191994</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.443363061150245</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.6363068365590081</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.897070907683629</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>8.294661227330714</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.884063404685637</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>5.254841934291683</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1411859254038505</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.374451388598794</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2169733260032747</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.2892132456054538</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.0541271767781</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.07873634552207</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.10107846398311</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>14.7006710648601</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8136017251931781</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8795545824423224</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6805157793872433</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>1.077293719731119</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
